--- a/Data/2017.xlsx
+++ b/Data/2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdityaG/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A417A09C-F2CE-EE4F-96BB-AE693EFC63B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161182F3-0CC3-E148-9E0F-C8C9731CD1A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="440" windowWidth="28800" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reservoir Trends Report" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="57">
   <si>
     <t>Reservoir Name</t>
   </si>
   <si>
-    <t>Live Capacity at FRL (BCM)</t>
-  </si>
-  <si>
     <t>Jan 2017</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>Upper TapiHatnur Reservoir</t>
   </si>
   <si>
-    <t>0.26</t>
-  </si>
-  <si>
     <t>JALGAON</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>Isapur Reservoir</t>
   </si>
   <si>
-    <t>0.96</t>
-  </si>
-  <si>
     <t>AURANGABAD</t>
   </si>
   <si>
@@ -97,9 +88,6 @@
     <t>Bhatsa</t>
   </si>
   <si>
-    <t>0.94</t>
-  </si>
-  <si>
     <t>THANE</t>
   </si>
   <si>
@@ -109,9 +97,6 @@
     <t>Koyana/Shivaji Sagar</t>
   </si>
   <si>
-    <t>2.65</t>
-  </si>
-  <si>
     <t>PUNE</t>
   </si>
   <si>
@@ -121,57 +106,36 @@
     <t>Dudhganga</t>
   </si>
   <si>
-    <t>0.66</t>
-  </si>
-  <si>
     <t>NASHIK</t>
   </si>
   <si>
     <t>Khadakwasla Reservoir</t>
   </si>
   <si>
-    <t>0.06</t>
-  </si>
-  <si>
     <t>SATARA</t>
   </si>
   <si>
     <t>Bhandardara</t>
   </si>
   <si>
-    <t>0.3</t>
-  </si>
-  <si>
     <t>AHMADNAGAR</t>
   </si>
   <si>
     <t>Upper Vaitarana Reservoir</t>
   </si>
   <si>
-    <t>0.33</t>
-  </si>
-  <si>
     <t>Manikdoh</t>
   </si>
   <si>
-    <t>0.29</t>
-  </si>
-  <si>
     <t>Yeldari Reservoir</t>
   </si>
   <si>
-    <t>0.81</t>
-  </si>
-  <si>
     <t>PARBHANI</t>
   </si>
   <si>
     <t>Urmodi</t>
   </si>
   <si>
-    <t>0.27</t>
-  </si>
-  <si>
     <t>Niradevghar</t>
   </si>
   <si>
@@ -181,36 +145,24 @@
     <t>Upper Wardha Reservoir</t>
   </si>
   <si>
-    <t>0.56</t>
-  </si>
-  <si>
     <t>AMRAVATI</t>
   </si>
   <si>
     <t>Mula Reservoir</t>
   </si>
   <si>
-    <t>0.61</t>
-  </si>
-  <si>
     <t>NAGPUR</t>
   </si>
   <si>
     <t>PenchTotladoh Reservoir</t>
   </si>
   <si>
-    <t>1.09</t>
-  </si>
-  <si>
     <t>SOLAPUR</t>
   </si>
   <si>
     <t>Bhatghar</t>
   </si>
   <si>
-    <t>0.67</t>
-  </si>
-  <si>
     <t>Dhom</t>
   </si>
   <si>
@@ -220,34 +172,19 @@
     <t>Thokarwadi</t>
   </si>
   <si>
-    <t>0.35</t>
-  </si>
-  <si>
     <t>JayakwadiNath Sagar</t>
   </si>
   <si>
-    <t>2.17</t>
-  </si>
-  <si>
     <t>Girna Reservoir</t>
   </si>
   <si>
-    <t>0.52</t>
-  </si>
-  <si>
     <t>HINGOLI</t>
   </si>
   <si>
     <t>Mulshi Dam</t>
   </si>
   <si>
-    <t>0.47</t>
-  </si>
-  <si>
     <t>BhimaUjjani Reservoir</t>
-  </si>
-  <si>
-    <t>1.52</t>
   </si>
   <si>
     <t>Alwandi</t>
@@ -605,15 +542,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -659,187 +596,175 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
+      <c r="B2">
+        <v>0.19</v>
       </c>
       <c r="C2">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="D2">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="E2">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
       <c r="G2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H2">
         <v>0.01</v>
       </c>
       <c r="I2">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="J2">
+        <v>0.25</v>
+      </c>
+      <c r="K2">
+        <v>0.26</v>
+      </c>
+      <c r="L2">
+        <v>0.24</v>
+      </c>
+      <c r="M2">
+        <v>0.22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>0.35</v>
+      </c>
+      <c r="C3">
+        <v>0.32</v>
+      </c>
+      <c r="D3">
+        <v>0.23</v>
+      </c>
+      <c r="E3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.04</v>
+      </c>
+      <c r="G3">
+        <v>0.05</v>
+      </c>
+      <c r="H3">
+        <v>0.06</v>
+      </c>
+      <c r="I3">
+        <v>0.08</v>
+      </c>
+      <c r="J3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K3">
         <v>0.15</v>
       </c>
-      <c r="K2">
+      <c r="L3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>0.67</v>
+      </c>
+      <c r="C4">
+        <v>0.59</v>
+      </c>
+      <c r="D4">
+        <v>0.51</v>
+      </c>
+      <c r="E4">
+        <v>0.43</v>
+      </c>
+      <c r="F4">
+        <v>0.35</v>
+      </c>
+      <c r="G4">
+        <v>0.41</v>
+      </c>
+      <c r="H4">
+        <v>0.82</v>
+      </c>
+      <c r="I4">
+        <v>0.9</v>
+      </c>
+      <c r="J4">
+        <v>0.94</v>
+      </c>
+      <c r="K4">
+        <v>0.91</v>
+      </c>
+      <c r="L4">
+        <v>0.84</v>
+      </c>
+      <c r="M4">
+        <v>0.75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>1.62</v>
+      </c>
+      <c r="C5">
+        <v>1.32</v>
+      </c>
+      <c r="D5">
+        <v>0.93</v>
+      </c>
+      <c r="E5">
+        <v>0.49</v>
+      </c>
+      <c r="F5">
         <v>0.25</v>
       </c>
-      <c r="L2">
-        <v>0.26</v>
-      </c>
-      <c r="M2">
-        <v>0.24</v>
-      </c>
-      <c r="N2">
-        <v>0.22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>0.35</v>
-      </c>
-      <c r="D3">
-        <v>0.32</v>
-      </c>
-      <c r="E3">
-        <v>0.23</v>
-      </c>
-      <c r="F3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G3">
-        <v>0.04</v>
-      </c>
-      <c r="H3">
-        <v>0.05</v>
-      </c>
-      <c r="I3">
-        <v>0.06</v>
-      </c>
-      <c r="J3">
-        <v>0.08</v>
-      </c>
-      <c r="K3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L3">
-        <v>0.15</v>
-      </c>
-      <c r="M3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N3">
-        <v>0.11</v>
-      </c>
-      <c r="O3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>0.67</v>
-      </c>
-      <c r="D4">
-        <v>0.59</v>
-      </c>
-      <c r="E4">
-        <v>0.51</v>
-      </c>
-      <c r="F4">
-        <v>0.43</v>
-      </c>
-      <c r="G4">
-        <v>0.35</v>
-      </c>
-      <c r="H4">
-        <v>0.41</v>
-      </c>
-      <c r="I4">
-        <v>0.82</v>
-      </c>
-      <c r="J4">
-        <v>0.9</v>
-      </c>
-      <c r="K4">
-        <v>0.94</v>
-      </c>
-      <c r="L4">
-        <v>0.91</v>
-      </c>
-      <c r="M4">
-        <v>0.84</v>
-      </c>
-      <c r="N4">
-        <v>0.75</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5">
-        <v>1.62</v>
-      </c>
-      <c r="D5">
-        <v>1.32</v>
-      </c>
-      <c r="E5">
-        <v>0.93</v>
-      </c>
-      <c r="F5">
-        <v>0.49</v>
-      </c>
       <c r="G5">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="H5">
-        <v>0.6</v>
+        <v>2.17</v>
       </c>
       <c r="I5">
-        <v>2.17</v>
+        <v>2.65</v>
       </c>
       <c r="J5">
         <v>2.65</v>
@@ -851,92 +776,86 @@
         <v>2.65</v>
       </c>
       <c r="M5">
-        <v>2.65</v>
-      </c>
-      <c r="N5">
         <v>2.5099999999999998</v>
       </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
       <c r="O5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="D6">
-        <v>0.43</v>
+        <v>0.31</v>
       </c>
       <c r="E6">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="F6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G6">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H6">
-        <v>0.15</v>
+        <v>0.53</v>
       </c>
       <c r="I6">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
       <c r="J6">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="K6">
         <v>0.66</v>
       </c>
       <c r="L6">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="M6">
-        <v>0.64</v>
-      </c>
-      <c r="N6">
         <v>0.57999999999999996</v>
       </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
       <c r="O6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>0.04</v>
       </c>
       <c r="C7">
+        <v>0.03</v>
+      </c>
+      <c r="D7">
+        <v>0.05</v>
+      </c>
+      <c r="E7">
         <v>0.04</v>
       </c>
-      <c r="D7">
-        <v>0.03</v>
-      </c>
-      <c r="E7">
-        <v>0.05</v>
-      </c>
       <c r="F7">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G7">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H7">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="I7">
         <v>0.06</v>
@@ -945,51 +864,48 @@
         <v>0.06</v>
       </c>
       <c r="K7">
+        <v>0.04</v>
+      </c>
+      <c r="L7">
+        <v>0.05</v>
+      </c>
+      <c r="M7">
+        <v>0.03</v>
+      </c>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>0.27</v>
+      </c>
+      <c r="C8">
+        <v>0.22</v>
+      </c>
+      <c r="D8">
+        <v>0.16</v>
+      </c>
+      <c r="E8">
+        <v>0.11</v>
+      </c>
+      <c r="F8">
+        <v>0.05</v>
+      </c>
+      <c r="G8">
         <v>0.06</v>
       </c>
-      <c r="L7">
-        <v>0.04</v>
-      </c>
-      <c r="M7">
-        <v>0.05</v>
-      </c>
-      <c r="N7">
-        <v>0.03</v>
-      </c>
-      <c r="O7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8">
-        <v>0.27</v>
-      </c>
-      <c r="D8">
-        <v>0.22</v>
-      </c>
-      <c r="E8">
-        <v>0.16</v>
-      </c>
-      <c r="F8">
-        <v>0.11</v>
-      </c>
-      <c r="G8">
-        <v>0.05</v>
-      </c>
       <c r="H8">
-        <v>0.06</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I8">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="J8">
         <v>0.3</v>
@@ -1003,43 +919,40 @@
       <c r="M8">
         <v>0.3</v>
       </c>
-      <c r="N8">
-        <v>0.3</v>
+      <c r="N8" t="s">
+        <v>32</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>0.26</v>
       </c>
       <c r="C9">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="D9">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="E9">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="F9">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G9">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H9">
-        <v>0.09</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I9">
-        <v>0.28000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="J9">
         <v>0.33</v>
@@ -1051,198 +964,186 @@
         <v>0.33</v>
       </c>
       <c r="M9">
-        <v>0.33</v>
-      </c>
-      <c r="N9">
         <v>0.3</v>
       </c>
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
       <c r="O9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="P9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
+      <c r="B10">
+        <v>0.11</v>
       </c>
       <c r="C10">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="D10">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E10">
         <v>0.02</v>
       </c>
       <c r="F10">
+        <v>0.01</v>
+      </c>
+      <c r="G10">
         <v>0.02</v>
       </c>
-      <c r="G10">
-        <v>0.01</v>
-      </c>
       <c r="H10">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="I10">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="J10">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="K10">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="L10">
         <v>0.24</v>
       </c>
       <c r="M10">
-        <v>0.24</v>
-      </c>
-      <c r="N10">
         <v>0.23</v>
       </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
       <c r="O10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>0.15</v>
       </c>
       <c r="C11">
         <v>0.15</v>
       </c>
       <c r="D11">
-        <v>0.15</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F11">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="G11">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H11">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I11">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J11">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="K11">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="L11">
         <v>0.11</v>
       </c>
       <c r="M11">
-        <v>0.11</v>
-      </c>
-      <c r="N11">
         <v>0.06</v>
       </c>
+      <c r="N11" t="s">
+        <v>36</v>
+      </c>
       <c r="O11" t="s">
-        <v>47</v>
-      </c>
-      <c r="P11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>0.23</v>
       </c>
       <c r="C12">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="D12">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="E12">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="F12">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="G12">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="H12">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="I12">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="J12">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="K12">
         <v>0.27</v>
       </c>
       <c r="L12">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="M12">
         <v>0.26</v>
       </c>
-      <c r="N12">
-        <v>0.26</v>
+      <c r="N12" t="s">
+        <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>0.19</v>
       </c>
       <c r="C13">
-        <v>0.19</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D13">
-        <v>0.14000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E13">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="F13">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G13">
         <v>0.01</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13">
         <v>0.01</v>
       </c>
-      <c r="I13" t="s">
-        <v>51</v>
-      </c>
       <c r="J13">
-        <v>0.01</v>
+        <v>0.33</v>
       </c>
       <c r="K13">
         <v>0.33</v>
@@ -1250,196 +1151,184 @@
       <c r="L13">
         <v>0.33</v>
       </c>
-      <c r="M13">
-        <v>0.33</v>
+      <c r="M13" t="s">
+        <v>39</v>
       </c>
       <c r="N13" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="O13" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>0.35</v>
       </c>
       <c r="C14">
-        <v>0.35</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D14">
-        <v>0.28999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="E14">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="F14">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G14">
         <v>0.2</v>
       </c>
       <c r="H14">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="I14">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="J14">
-        <v>0.33</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K14">
         <v>0.56000000000000005</v>
       </c>
       <c r="L14">
-        <v>0.56000000000000005</v>
+        <v>0.48</v>
       </c>
       <c r="M14">
-        <v>0.48</v>
-      </c>
-      <c r="N14">
         <v>0.4</v>
       </c>
+      <c r="N14" t="s">
+        <v>41</v>
+      </c>
       <c r="O14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>0.45</v>
       </c>
       <c r="C15">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="D15">
-        <v>0.34</v>
+        <v>0.21</v>
       </c>
       <c r="E15">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="F15">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="G15">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H15">
-        <v>0.01</v>
+        <v>0.53</v>
       </c>
       <c r="I15">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="J15">
-        <v>0.5</v>
+        <v>0.61</v>
       </c>
       <c r="K15">
         <v>0.61</v>
       </c>
       <c r="L15">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="M15">
-        <v>0.59</v>
-      </c>
-      <c r="N15">
         <v>0.54</v>
       </c>
+      <c r="N15" t="s">
+        <v>43</v>
+      </c>
       <c r="O15" t="s">
-        <v>57</v>
-      </c>
-      <c r="P15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>0.27</v>
       </c>
       <c r="C16">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="D16">
+        <v>0.15</v>
+      </c>
+      <c r="E16">
+        <v>0.11</v>
+      </c>
+      <c r="F16">
+        <v>0.05</v>
+      </c>
+      <c r="G16">
+        <v>0.04</v>
+      </c>
+      <c r="H16">
+        <v>0.11</v>
+      </c>
+      <c r="I16">
+        <v>0.15</v>
+      </c>
+      <c r="J16">
+        <v>0.43</v>
+      </c>
+      <c r="K16">
+        <v>0.33</v>
+      </c>
+      <c r="L16">
+        <v>0.31</v>
+      </c>
+      <c r="M16">
+        <v>0.22</v>
+      </c>
+      <c r="N16" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>0.47</v>
+      </c>
+      <c r="C17">
+        <v>0.32</v>
+      </c>
+      <c r="D17">
         <v>0.19</v>
       </c>
-      <c r="E16">
-        <v>0.15</v>
-      </c>
-      <c r="F16">
-        <v>0.11</v>
-      </c>
-      <c r="G16">
+      <c r="E17">
         <v>0.05</v>
       </c>
-      <c r="H16">
-        <v>0.04</v>
-      </c>
-      <c r="I16">
-        <v>0.11</v>
-      </c>
-      <c r="J16">
-        <v>0.15</v>
-      </c>
-      <c r="K16">
-        <v>0.43</v>
-      </c>
-      <c r="L16">
-        <v>0.33</v>
-      </c>
-      <c r="M16">
-        <v>0.31</v>
-      </c>
-      <c r="N16">
-        <v>0.22</v>
-      </c>
-      <c r="O16" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17">
-        <v>0.47</v>
-      </c>
-      <c r="D17">
-        <v>0.32</v>
-      </c>
-      <c r="E17">
-        <v>0.19</v>
-      </c>
       <c r="F17">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G17">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="H17">
-        <v>0.06</v>
+        <v>0.54</v>
       </c>
       <c r="I17">
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
       <c r="J17">
         <v>0.67</v>
@@ -1448,286 +1337,268 @@
         <v>0.67</v>
       </c>
       <c r="L17">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="M17">
-        <v>0.66</v>
-      </c>
-      <c r="N17">
         <v>0.6</v>
       </c>
+      <c r="N17" t="s">
+        <v>25</v>
+      </c>
       <c r="O17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>0.15</v>
       </c>
       <c r="C18">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D18">
+        <v>0.13</v>
+      </c>
+      <c r="E18">
         <v>0.1</v>
       </c>
-      <c r="E18">
-        <v>0.13</v>
-      </c>
       <c r="F18">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G18">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H18">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
-        <v>0.2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J18">
-        <v>0.28000000000000003</v>
+        <v>0.31</v>
       </c>
       <c r="K18">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="L18">
-        <v>0.33</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M18">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="N18">
         <v>0.26</v>
       </c>
+      <c r="N18" t="s">
+        <v>48</v>
+      </c>
       <c r="O18" t="s">
-        <v>64</v>
-      </c>
-      <c r="P18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="L19" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M19" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N19" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="O19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>1.32</v>
       </c>
       <c r="C20">
-        <v>1.32</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="D20">
-        <v>1.1299999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="E20">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="F20">
-        <v>0.64</v>
+        <v>0.41</v>
       </c>
       <c r="G20">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="H20">
-        <v>0.4</v>
+        <v>1.04</v>
       </c>
       <c r="I20">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="J20">
-        <v>1.6</v>
+        <v>2.17</v>
       </c>
       <c r="K20">
         <v>2.17</v>
       </c>
       <c r="L20">
-        <v>2.17</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="M20">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="N20">
         <v>1.81</v>
       </c>
+      <c r="N20" t="s">
+        <v>25</v>
+      </c>
       <c r="O20" t="s">
-        <v>30</v>
-      </c>
-      <c r="P20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="B21">
+        <v>0.31</v>
       </c>
       <c r="C21">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="D21">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="E21">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="F21">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="G21">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H21">
-        <v>0.14000000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="I21">
+        <v>0.32</v>
+      </c>
+      <c r="J21">
+        <v>0.34</v>
+      </c>
+      <c r="K21">
+        <v>0.38</v>
+      </c>
+      <c r="L21">
+        <v>0.37</v>
+      </c>
+      <c r="M21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N21" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23">
+        <v>1.02</v>
+      </c>
+      <c r="C23">
+        <v>0.86</v>
+      </c>
+      <c r="D23">
         <v>0.27</v>
       </c>
-      <c r="J21">
-        <v>0.32</v>
-      </c>
-      <c r="K21">
-        <v>0.34</v>
-      </c>
-      <c r="L21">
-        <v>0.38</v>
-      </c>
-      <c r="M21">
-        <v>0.37</v>
-      </c>
-      <c r="N21">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="O21" t="s">
-        <v>71</v>
-      </c>
-      <c r="P21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" t="s">
-        <v>51</v>
-      </c>
-      <c r="J22" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L22" t="s">
-        <v>51</v>
-      </c>
-      <c r="M22" t="s">
-        <v>51</v>
-      </c>
-      <c r="N22" t="s">
-        <v>51</v>
-      </c>
-      <c r="O22" t="s">
-        <v>30</v>
-      </c>
-      <c r="P22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23">
-        <v>1.02</v>
-      </c>
-      <c r="D23">
-        <v>0.86</v>
-      </c>
       <c r="E23">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1736,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="I23">
-        <v>0.73</v>
+        <v>1.52</v>
       </c>
       <c r="J23">
         <v>1.52</v>
@@ -1753,114 +1624,105 @@
       <c r="M23">
         <v>1.52</v>
       </c>
-      <c r="N23">
-        <v>1.52</v>
+      <c r="N23" t="s">
+        <v>30</v>
       </c>
       <c r="O23" t="s">
-        <v>37</v>
-      </c>
-      <c r="P23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J24" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="L24" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M24" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N24" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="O24" t="s">
-        <v>34</v>
-      </c>
-      <c r="P24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="L25" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M25" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N25" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="O25" t="s">
-        <v>37</v>
-      </c>
-      <c r="P25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
